--- a/public/abcd/Comparative Statement for Last Year Report.xlsx
+++ b/public/abcd/Comparative Statement for Last Year Report.xlsx
@@ -92,7 +92,7 @@
     <t>Print taken by : Satya</t>
   </si>
   <si>
-    <t>Print taken at : 11-03-2019 12:38:38</t>
+    <t>Print taken at : 11-03-2019 12:47:41</t>
   </si>
 </sst>
 </file>

--- a/public/abcd/Comparative Statement for Last Year Report.xlsx
+++ b/public/abcd/Comparative Statement for Last Year Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>QixTix | Automated Fare Collection System</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Comparative Statement for Last Year Report</t>
   </si>
   <si>
-    <t>Depot : opiant</t>
-  </si>
-  <si>
-    <t>From : 01-03-2019</t>
-  </si>
-  <si>
-    <t>To : 11-03-2019</t>
+    <t>Depot : BALEWADI</t>
+  </si>
+  <si>
+    <t>From : 01-10-2018</t>
+  </si>
+  <si>
+    <t>To : 19-03-2019</t>
   </si>
   <si>
     <t>KMS</t>
@@ -59,6 +59,459 @@
     <t>Percentage</t>
   </si>
   <si>
+    <t>01/10</t>
+  </si>
+  <si>
+    <t>02/10</t>
+  </si>
+  <si>
+    <t>03/10</t>
+  </si>
+  <si>
+    <t>04/10</t>
+  </si>
+  <si>
+    <t>05/10</t>
+  </si>
+  <si>
+    <t>06/10</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>08/10</t>
+  </si>
+  <si>
+    <t>09/10</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>11/10</t>
+  </si>
+  <si>
+    <t>12/10</t>
+  </si>
+  <si>
+    <t>13/10</t>
+  </si>
+  <si>
+    <t>14/10</t>
+  </si>
+  <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <t>19/10</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <t>22/10</t>
+  </si>
+  <si>
+    <t>23/10</t>
+  </si>
+  <si>
+    <t>24/10</t>
+  </si>
+  <si>
+    <t>25/10</t>
+  </si>
+  <si>
+    <t>26/10</t>
+  </si>
+  <si>
+    <t>27/10</t>
+  </si>
+  <si>
+    <t>28/10</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <t>30/10</t>
+  </si>
+  <si>
+    <t>31/10</t>
+  </si>
+  <si>
+    <t>01/11</t>
+  </si>
+  <si>
+    <t>02/11</t>
+  </si>
+  <si>
+    <t>03/11</t>
+  </si>
+  <si>
+    <t>04/11</t>
+  </si>
+  <si>
+    <t>05/11</t>
+  </si>
+  <si>
+    <t>06/11</t>
+  </si>
+  <si>
+    <t>07/11</t>
+  </si>
+  <si>
+    <t>08/11</t>
+  </si>
+  <si>
+    <t>09/11</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <t>13/11</t>
+  </si>
+  <si>
+    <t>14/11</t>
+  </si>
+  <si>
+    <t>15/11</t>
+  </si>
+  <si>
+    <t>16/11</t>
+  </si>
+  <si>
+    <t>17/11</t>
+  </si>
+  <si>
+    <t>18/11</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>22/11</t>
+  </si>
+  <si>
+    <t>23/11</t>
+  </si>
+  <si>
+    <t>24/11</t>
+  </si>
+  <si>
+    <t>25/11</t>
+  </si>
+  <si>
+    <t>26/11</t>
+  </si>
+  <si>
+    <t>27/11</t>
+  </si>
+  <si>
+    <t>28/11</t>
+  </si>
+  <si>
+    <t>29/11</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <t>01/12</t>
+  </si>
+  <si>
+    <t>02/12</t>
+  </si>
+  <si>
+    <t>03/12</t>
+  </si>
+  <si>
+    <t>04/12</t>
+  </si>
+  <si>
+    <t>05/12</t>
+  </si>
+  <si>
+    <t>06/12</t>
+  </si>
+  <si>
+    <t>07/12</t>
+  </si>
+  <si>
+    <t>08/12</t>
+  </si>
+  <si>
+    <t>09/12</t>
+  </si>
+  <si>
+    <t>10/12</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>13/12</t>
+  </si>
+  <si>
+    <t>14/12</t>
+  </si>
+  <si>
+    <t>15/12</t>
+  </si>
+  <si>
+    <t>16/12</t>
+  </si>
+  <si>
+    <t>17/12</t>
+  </si>
+  <si>
+    <t>18/12</t>
+  </si>
+  <si>
+    <t>19/12</t>
+  </si>
+  <si>
+    <t>20/12</t>
+  </si>
+  <si>
+    <t>21/12</t>
+  </si>
+  <si>
+    <t>22/12</t>
+  </si>
+  <si>
+    <t>23/12</t>
+  </si>
+  <si>
+    <t>24/12</t>
+  </si>
+  <si>
+    <t>25/12</t>
+  </si>
+  <si>
+    <t>26/12</t>
+  </si>
+  <si>
+    <t>27/12</t>
+  </si>
+  <si>
+    <t>28/12</t>
+  </si>
+  <si>
+    <t>29/12</t>
+  </si>
+  <si>
+    <t>30/12</t>
+  </si>
+  <si>
+    <t>31/12</t>
+  </si>
+  <si>
+    <t>01/01</t>
+  </si>
+  <si>
+    <t>02/01</t>
+  </si>
+  <si>
+    <t>03/01</t>
+  </si>
+  <si>
+    <t>04/01</t>
+  </si>
+  <si>
+    <t>05/01</t>
+  </si>
+  <si>
+    <t>06/01</t>
+  </si>
+  <si>
+    <t>07/01</t>
+  </si>
+  <si>
+    <t>08/01</t>
+  </si>
+  <si>
+    <t>09/01</t>
+  </si>
+  <si>
+    <t>10/01</t>
+  </si>
+  <si>
+    <t>11/01</t>
+  </si>
+  <si>
+    <t>12/01</t>
+  </si>
+  <si>
+    <t>13/01</t>
+  </si>
+  <si>
+    <t>14/01</t>
+  </si>
+  <si>
+    <t>15/01</t>
+  </si>
+  <si>
+    <t>16/01</t>
+  </si>
+  <si>
+    <t>17/01</t>
+  </si>
+  <si>
+    <t>18/01</t>
+  </si>
+  <si>
+    <t>19/01</t>
+  </si>
+  <si>
+    <t>20/01</t>
+  </si>
+  <si>
+    <t>21/01</t>
+  </si>
+  <si>
+    <t>22/01</t>
+  </si>
+  <si>
+    <t>23/01</t>
+  </si>
+  <si>
+    <t>24/01</t>
+  </si>
+  <si>
+    <t>25/01</t>
+  </si>
+  <si>
+    <t>26/01</t>
+  </si>
+  <si>
+    <t>27/01</t>
+  </si>
+  <si>
+    <t>28/01</t>
+  </si>
+  <si>
+    <t>29/01</t>
+  </si>
+  <si>
+    <t>30/01</t>
+  </si>
+  <si>
+    <t>31/01</t>
+  </si>
+  <si>
+    <t>01/02</t>
+  </si>
+  <si>
+    <t>02/02</t>
+  </si>
+  <si>
+    <t>03/02</t>
+  </si>
+  <si>
+    <t>04/02</t>
+  </si>
+  <si>
+    <t>05/02</t>
+  </si>
+  <si>
+    <t>06/02</t>
+  </si>
+  <si>
+    <t>07/02</t>
+  </si>
+  <si>
+    <t>08/02</t>
+  </si>
+  <si>
+    <t>09/02</t>
+  </si>
+  <si>
+    <t>10/02</t>
+  </si>
+  <si>
+    <t>11/02</t>
+  </si>
+  <si>
+    <t>12/02</t>
+  </si>
+  <si>
+    <t>13/02</t>
+  </si>
+  <si>
+    <t>14/02</t>
+  </si>
+  <si>
+    <t>15/02</t>
+  </si>
+  <si>
+    <t>16/02</t>
+  </si>
+  <si>
+    <t>17/02</t>
+  </si>
+  <si>
+    <t>18/02</t>
+  </si>
+  <si>
+    <t>19/02</t>
+  </si>
+  <si>
+    <t>20/02</t>
+  </si>
+  <si>
+    <t>21/02</t>
+  </si>
+  <si>
+    <t>22/02</t>
+  </si>
+  <si>
+    <t>23/02</t>
+  </si>
+  <si>
+    <t>24/02</t>
+  </si>
+  <si>
+    <t>25/02</t>
+  </si>
+  <si>
+    <t>26/02</t>
+  </si>
+  <si>
+    <t>27/02</t>
+  </si>
+  <si>
+    <t>28/02</t>
+  </si>
+  <si>
     <t>01/03</t>
   </si>
   <si>
@@ -89,10 +542,34 @@
     <t>10/03</t>
   </si>
   <si>
+    <t>11/03</t>
+  </si>
+  <si>
+    <t>12/03</t>
+  </si>
+  <si>
+    <t>13/03</t>
+  </si>
+  <si>
+    <t>14/03</t>
+  </si>
+  <si>
+    <t>15/03</t>
+  </si>
+  <si>
+    <t>16/03</t>
+  </si>
+  <si>
+    <t>17/03</t>
+  </si>
+  <si>
+    <t>18/03</t>
+  </si>
+  <si>
     <t>Print taken by : Satya</t>
   </si>
   <si>
-    <t>Print taken at : 11-03-2019 12:47:41</t>
+    <t>Print taken at : 19-03-2019 12:25:27</t>
   </si>
 </sst>
 </file>
@@ -520,10 +997,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,12 +1574,7008 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:14">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
         <v>24</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
         <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>300</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>596</v>
+      </c>
+      <c r="I81">
+        <v>596</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1.9866666666667</v>
+      </c>
+      <c r="M81">
+        <v>1.9866666666667</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
+        <v>103</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
+        <v>104</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
+        <v>108</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>112</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>115</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
+        <v>117</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
+        <v>118</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <v>119</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
+        <v>120</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
+        <v>121</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129">
+        <v>122</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
+        <v>123</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132">
+        <v>125</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133">
+        <v>126</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134">
+        <v>127</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135">
+        <v>128</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137">
+        <v>130</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
+        <v>131</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>132</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>133</v>
+      </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>134</v>
+      </c>
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>135</v>
+      </c>
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>136</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>137</v>
+      </c>
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>138</v>
+      </c>
+      <c r="B145" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>139</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>140</v>
+      </c>
+      <c r="B147" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>142</v>
+      </c>
+      <c r="B149" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>143</v>
+      </c>
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>144</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>145</v>
+      </c>
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>146</v>
+      </c>
+      <c r="B153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>148</v>
+      </c>
+      <c r="B155" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>149</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>150</v>
+      </c>
+      <c r="B157" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>151</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159">
+        <v>152</v>
+      </c>
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>153</v>
+      </c>
+      <c r="B160" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>154</v>
+      </c>
+      <c r="B161" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
+        <v>155</v>
+      </c>
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>156</v>
+      </c>
+      <c r="B163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
+        <v>157</v>
+      </c>
+      <c r="B164" t="s">
+        <v>170</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>158</v>
+      </c>
+      <c r="B165" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166">
+        <v>159</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167">
+        <v>160</v>
+      </c>
+      <c r="B167" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168">
+        <v>161</v>
+      </c>
+      <c r="B168" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169">
+        <v>162</v>
+      </c>
+      <c r="B169" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>163</v>
+      </c>
+      <c r="B170" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>164</v>
+      </c>
+      <c r="B171" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172">
+        <v>165</v>
+      </c>
+      <c r="B172" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173">
+        <v>166</v>
+      </c>
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174">
+        <v>167</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175">
+        <v>168</v>
+      </c>
+      <c r="B175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176">
+        <v>169</v>
+      </c>
+      <c r="B176" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1117,8 +8590,8 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="H178:N178"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
